--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-6018-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-6018-top-by-races-count.xlsx
@@ -59,7 +59,7 @@
     <t>Anhel-kam</t>
   </si>
   <si>
-    <t>185 ч. 45 мин. 8 сек.</t>
+    <t>185 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -77,7 +77,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>198 ч. 23 мин. 8 сек.</t>
+    <t>198 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>5</t>
@@ -95,7 +95,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>86 ч. 39 мин. 6 сек.</t>
+    <t>86 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -131,7 +131,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>62 ч. 26 мин. 2 сек.</t>
+    <t>62 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -185,7 +185,7 @@
     <t>pyTo</t>
   </si>
   <si>
-    <t>146 ч. 5 мин. 59 сек.</t>
+    <t>146 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -194,7 +194,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>119 ч. 6 мин. 5 сек.</t>
+    <t>119 ч. 06 мин. 05 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -203,7 +203,7 @@
     <t>AvtandiLine</t>
   </si>
   <si>
-    <t>54 ч. 53 мин. 9 сек.</t>
+    <t>54 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -221,7 +221,7 @@
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>104 ч. 0 мин. 7 сек.</t>
+    <t>104 ч. 00 мин. 07 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -257,7 +257,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>61 ч. 0 мин. 42 сек.</t>
+    <t>61 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>25</t>
@@ -266,7 +266,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>78 ч. 5 мин. 50 сек.</t>
+    <t>78 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -284,7 +284,7 @@
     <t>ufcntkkj</t>
   </si>
   <si>
-    <t>131 ч. 0 мин. 54 сек.</t>
+    <t>131 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -389,7 +389,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>48 ч. 46 мин. 6 сек.</t>
+    <t>48 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -398,7 +398,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>80 ч. 31 мин. 0 сек.</t>
+    <t>80 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>41</t>
@@ -425,7 +425,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>30 ч. 48 мин. 2 сек.</t>
+    <t>30 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -434,7 +434,7 @@
     <t>turbulent</t>
   </si>
   <si>
-    <t>58 ч. 22 мин. 9 сек.</t>
+    <t>58 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -497,7 +497,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>41 ч. 54 мин. 6 сек.</t>
+    <t>41 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -515,7 +515,7 @@
     <t>Cooler195</t>
   </si>
   <si>
-    <t>64 ч. 3 мин. 47 сек.</t>
+    <t>64 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -542,7 +542,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>48 ч. 54 мин. 4 сек.</t>
+    <t>48 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -560,7 +560,7 @@
     <t>mekh</t>
   </si>
   <si>
-    <t>50 ч. 2 мин. 11 сек.</t>
+    <t>50 ч. 02 мин. 11 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -602,7 +602,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>45 ч. 9 мин. 9 сек.</t>
+    <t>45 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>64–65</t>
@@ -686,7 +686,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>30 ч. 1 мин. 42 сек.</t>
+    <t>30 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>74–75</t>
@@ -701,7 +701,7 @@
     <t>Jinglse</t>
   </si>
   <si>
-    <t>47 ч. 35 мин. 6 сек.</t>
+    <t>47 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -746,13 +746,13 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 39 сек.</t>
+    <t>31 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>yulian</t>
   </si>
   <si>
-    <t>36 ч. 32 мин. 2 сек.</t>
+    <t>36 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>82</t>
@@ -788,7 +788,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>43 ч. 15 мин. 8 сек.</t>
+    <t>43 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>86</t>
@@ -797,7 +797,7 @@
     <t>staskrasovskiy</t>
   </si>
   <si>
-    <t>71 ч. 38 мин. 7 сек.</t>
+    <t>71 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -821,7 +821,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>36 ч. 54 мин. 2 сек.</t>
+    <t>36 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -893,7 +893,7 @@
     <t>mythteria</t>
   </si>
   <si>
-    <t>42 ч. 13 мин. 7 сек.</t>
+    <t>42 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>98</t>
@@ -902,7 +902,7 @@
     <t>Эромдомдом</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 54 сек.</t>
+    <t>35 ч. 05 мин. 54 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -920,7 +920,7 @@
     <t>Nathaliya</t>
   </si>
   <si>
-    <t>39 ч. 26 мин. 9 сек.</t>
+    <t>39 ч. 26 мин. 09 сек.</t>
   </si>
   <si>
     <t>101–102</t>
@@ -1022,7 +1022,7 @@
     <t>libertadore</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 58 сек.</t>
+    <t>22 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1049,7 +1049,7 @@
     <t>Vadim_K</t>
   </si>
   <si>
-    <t>31 ч. 18 мин. 2 сек.</t>
+    <t>31 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1076,7 +1076,7 @@
     <t>shamer</t>
   </si>
   <si>
-    <t>41 ч. 53 мин. 4 сек.</t>
+    <t>41 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>-LVV-</t>
@@ -1091,7 +1091,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>28 ч. 53 мин. 6 сек.</t>
+    <t>28 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1100,7 +1100,7 @@
     <t>batkovich</t>
   </si>
   <si>
-    <t>23 ч. 1 мин. 56 сек.</t>
+    <t>23 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1109,7 +1109,7 @@
     <t>feel018</t>
   </si>
   <si>
-    <t>34 ч. 16 мин. 0 сек.</t>
+    <t>34 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1172,7 +1172,7 @@
     <t>griboedov</t>
   </si>
   <si>
-    <t>48 ч. 3 мин. 48 сек.</t>
+    <t>48 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>130</t>
@@ -1181,7 +1181,7 @@
     <t>Azurit</t>
   </si>
   <si>
-    <t>26 ч. 53 мин. 6 сек.</t>
+    <t>26 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>131</t>
@@ -1190,7 +1190,7 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t>29 ч. 3 мин. 17 сек.</t>
+    <t>29 ч. 03 мин. 17 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1217,7 +1217,7 @@
     <t>leer</t>
   </si>
   <si>
-    <t>37 ч. 41 мин. 2 сек.</t>
+    <t>37 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1235,13 +1235,13 @@
     <t>Биолог467</t>
   </si>
   <si>
-    <t>51 ч. 4 мин. 43 сек.</t>
+    <t>51 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>Виталька</t>
   </si>
   <si>
-    <t>22 ч. 4 мин. 17 сек.</t>
+    <t>22 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1250,7 +1250,7 @@
     <t>юленька2807</t>
   </si>
   <si>
-    <t>46 ч. 7 мин. 5 сек.</t>
+    <t>46 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>139–140</t>
@@ -1265,7 +1265,7 @@
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 22 сек.</t>
+    <t>26 ч. 08 мин. 22 сек.</t>
   </si>
   <si>
     <t>141</t>
@@ -1274,7 +1274,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>24 ч. 16 мин. 0 сек.</t>
+    <t>24 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>142</t>
@@ -1328,7 +1328,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 9 сек.</t>
+    <t>20 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1355,7 +1355,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 14 сек.</t>
+    <t>13 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>151</t>
@@ -1406,7 +1406,7 @@
     <t>сибирь</t>
   </si>
   <si>
-    <t>39 ч. 1 мин. 35 сек.</t>
+    <t>39 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1424,7 +1424,7 @@
     <t>Поня-моня</t>
   </si>
   <si>
-    <t>52 ч. 23 мин. 2 сек.</t>
+    <t>52 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1457,7 +1457,7 @@
     <t>KILLALLHUMANS</t>
   </si>
   <si>
-    <t>32 ч. 0 мин. 45 сек.</t>
+    <t>32 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>163</t>
@@ -1493,7 +1493,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 57 сек.</t>
+    <t>17 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>Natalochka</t>
@@ -1514,7 +1514,7 @@
     <t>_onix</t>
   </si>
   <si>
-    <t>19 ч. 6 мин. 8 сек.</t>
+    <t>19 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1532,7 +1532,7 @@
     <t>olta19</t>
   </si>
   <si>
-    <t>45 ч. 5 мин. 53 сек.</t>
+    <t>45 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1550,7 +1550,7 @@
     <t>lnhuman</t>
   </si>
   <si>
-    <t>24 ч. 52 мин. 4 сек.</t>
+    <t>24 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>174</t>
@@ -1577,7 +1577,7 @@
     <t>Zikting</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 20 сек.</t>
+    <t>19 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>177–178</t>
@@ -1634,7 +1634,7 @@
     <t>Grimpen</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 53 сек.</t>
+    <t>18 ч. 06 мин. 53 сек.</t>
   </si>
   <si>
     <t>184</t>
@@ -1643,7 +1643,7 @@
     <t>Yoga888</t>
   </si>
   <si>
-    <t>23 ч. 5 мин. 10 сек.</t>
+    <t>23 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1652,7 +1652,7 @@
     <t>albertcoin</t>
   </si>
   <si>
-    <t>26 ч. 1 мин. 46 сек.</t>
+    <t>26 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1670,7 +1670,7 @@
     <t>Vestnik-Kozaky</t>
   </si>
   <si>
-    <t>26 ч. 25 мин. 8 сек.</t>
+    <t>26 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1679,7 +1679,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>22 ч. 5 мин. 20 сек.</t>
+    <t>22 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1697,7 +1697,7 @@
     <t>счастливка</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 4 сек.</t>
+    <t>22 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>tyrpyr</t>
@@ -1730,7 +1730,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>23 ч. 47 мин. 0 сек.</t>
+    <t>23 ч. 47 мин. 00 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1748,13 +1748,13 @@
     <t>JluCa</t>
   </si>
   <si>
-    <t>28 ч. 29 мин. 5 сек.</t>
+    <t>28 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>awefork</t>
   </si>
   <si>
-    <t>19 ч. 17 мин. 4 сек.</t>
+    <t>19 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>Gardenstone</t>
@@ -1787,7 +1787,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>18 ч. 44 мин. 8 сек.</t>
+    <t>18 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>202–203</t>
@@ -1796,13 +1796,13 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>18 ч. 13 мин. 0 сек.</t>
+    <t>18 ч. 13 мин. 00 сек.</t>
   </si>
   <si>
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>21 ч. 17 мин. 3 сек.</t>
+    <t>21 ч. 17 мин. 03 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1844,7 +1844,7 @@
     <t>murik</t>
   </si>
   <si>
-    <t>26 ч. 23 мин. 6 сек.</t>
+    <t>26 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>209</t>
@@ -1853,7 +1853,7 @@
     <t>NEsanych</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 45 сек.</t>
+    <t>15 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>210</t>
@@ -1904,7 +1904,7 @@
     <t>MightySan</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 19 сек.</t>
+    <t>19 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1931,7 +1931,7 @@
     <t>IdSomeName</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 34 сек.</t>
+    <t>19 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>Alkemist</t>
@@ -1955,7 +1955,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>21 ч. 2 мин. 52 сек.</t>
+    <t>21 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>222</t>
@@ -1964,7 +1964,7 @@
     <t>AlexAlexCh</t>
   </si>
   <si>
-    <t>25 ч. 9 мин. 34 сек.</t>
+    <t>25 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>223</t>
@@ -2000,7 +2000,7 @@
     <t>yamamoto013</t>
   </si>
   <si>
-    <t>22 ч. 39 мин. 7 сек.</t>
+    <t>22 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -2009,7 +2009,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>15 ч. 59 мин. 1 сек.</t>
+    <t>15 ч. 59 мин. 01 сек.</t>
   </si>
   <si>
     <t>228</t>
@@ -2036,7 +2036,7 @@
     <t>arch_commander</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 25 сек.</t>
+    <t>15 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>231</t>
@@ -2054,7 +2054,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 47 сек.</t>
+    <t>18 ч. 00 мин. 47 сек.</t>
   </si>
   <si>
     <t>233</t>
@@ -2096,7 +2096,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 20 сек.</t>
+    <t>19 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>238</t>
@@ -2132,7 +2132,7 @@
     <t>itrecord</t>
   </si>
   <si>
-    <t>29 ч. 9 мин. 40 сек.</t>
+    <t>29 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2168,13 +2168,13 @@
     <t>sergunn2008</t>
   </si>
   <si>
-    <t>33 ч. 15 мин. 8 сек.</t>
+    <t>33 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>Egen</t>
   </si>
   <si>
-    <t>21 ч. 0 мин. 15 сек.</t>
+    <t>21 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>247–248</t>
@@ -2183,7 +2183,7 @@
     <t>Ludimagister</t>
   </si>
   <si>
-    <t>17 ч. 41 мин. 0 сек.</t>
+    <t>17 ч. 41 мин. 00 сек.</t>
   </si>
   <si>
     <t>-creed-</t>
@@ -2234,7 +2234,7 @@
     <t>Lisander</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 18 сек.</t>
+    <t>16 ч. 05 мин. 18 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2288,13 +2288,13 @@
     <t>counterfeit</t>
   </si>
   <si>
-    <t>17 ч. 7 мин. 33 сек.</t>
+    <t>17 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>Alex199</t>
   </si>
   <si>
-    <t>12 ч. 56 мин. 1 сек.</t>
+    <t>12 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>261–263</t>
@@ -2309,7 +2309,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 20 сек.</t>
+    <t>13 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>Слепой</t>
@@ -2339,7 +2339,7 @@
     <t>Castolo</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 58 сек.</t>
+    <t>22 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2348,7 +2348,7 @@
     <t>Flerik</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 58 сек.</t>
+    <t>12 ч. 09 мин. 58 сек.</t>
   </si>
   <si>
     <t>268</t>
@@ -2366,7 +2366,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 3 сек.</t>
+    <t>11 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>270</t>
@@ -2375,7 +2375,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>15 ч. 43 мин. 0 сек.</t>
+    <t>15 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>271–272</t>
@@ -2384,7 +2384,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>16 ч. 18 мин. 0 сек.</t>
+    <t>16 ч. 18 мин. 00 сек.</t>
   </si>
   <si>
     <t>Annabeth</t>
@@ -2423,7 +2423,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>16 ч. 5 мин. 35 сек.</t>
+    <t>16 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2432,7 +2432,7 @@
     <t>Dima716</t>
   </si>
   <si>
-    <t>25 ч. 7 мин. 34 сек.</t>
+    <t>25 ч. 07 мин. 34 сек.</t>
   </si>
   <si>
     <t>278</t>
@@ -2477,7 +2477,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>18 ч. 17 мин. 6 сек.</t>
+    <t>18 ч. 17 мин. 06 сек.</t>
   </si>
   <si>
     <t>283</t>
@@ -2564,7 +2564,7 @@
     <t>kameheb</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 57 сек.</t>
+    <t>13 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>293–294</t>
@@ -2588,7 +2588,7 @@
     <t>wask</t>
   </si>
   <si>
-    <t>23 ч. 12 мин. 3 сек.</t>
+    <t>23 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>Disobey</t>
@@ -2609,7 +2609,7 @@
     <t>judigator</t>
   </si>
   <si>
-    <t>15 ч. 19 мин. 7 сек.</t>
+    <t>15 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>299–301</t>
@@ -2630,7 +2630,7 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>15 ч. 1 мин. 22 сек.</t>
+    <t>15 ч. 01 мин. 22 сек.</t>
   </si>
   <si>
     <t>302–305</t>
@@ -2645,7 +2645,7 @@
     <t>a1987zz</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 8 сек.</t>
+    <t>13 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>denis_mirny</t>
@@ -2675,7 +2675,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>15 ч. 32 мин. 3 сек.</t>
+    <t>15 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>308</t>
@@ -2708,7 +2708,7 @@
     <t>amadeus01</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 25 сек.</t>
+    <t>13 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
@@ -2738,7 +2738,7 @@
     <t>Малышка_Эн</t>
   </si>
   <si>
-    <t>11 ч. 41 мин. 3 сек.</t>
+    <t>11 ч. 41 мин. 03 сек.</t>
   </si>
   <si>
     <t>316–317</t>
@@ -2762,7 +2762,7 @@
     <t>ASplayer9119</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 45 сек.</t>
+    <t>14 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>319–321</t>
@@ -2807,7 +2807,7 @@
     <t>ruslan_stef</t>
   </si>
   <si>
-    <t>29 ч. 3 мин. 15 сек.</t>
+    <t>29 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>325–327</t>
@@ -2828,7 +2828,7 @@
     <t>_ECO_</t>
   </si>
   <si>
-    <t>11 ч. 34 мин. 5 сек.</t>
+    <t>11 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>328</t>
@@ -2837,7 +2837,7 @@
     <t>ra6pil</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 1 сек.</t>
+    <t>20 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>329</t>
@@ -2903,7 +2903,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 40 сек.</t>
+    <t>12 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>337</t>
@@ -2912,7 +2912,7 @@
     <t>sbox</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 48 сек.</t>
+    <t>8 ч. 08 мин. 48 сек.</t>
   </si>
   <si>
     <t>338–339</t>
@@ -2951,7 +2951,7 @@
     <t>Morrikon</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 39 сек.</t>
+    <t>8 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>343–344</t>
@@ -2960,13 +2960,13 @@
     <t>iknyaz</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 58 сек.</t>
+    <t>32 ч. 08 мин. 58 сек.</t>
   </si>
   <si>
     <t>Стартуем</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 44 сек.</t>
+    <t>15 ч. 09 мин. 44 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -3020,13 +3020,13 @@
     <t>вовик58</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 25 сек.</t>
+    <t>17 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>Fudo</t>
   </si>
   <si>
-    <t>8 ч. 16 мин. 2 сек.</t>
+    <t>8 ч. 16 мин. 02 сек.</t>
   </si>
   <si>
     <t>353</t>
@@ -3044,7 +3044,7 @@
     <t>AlexeiD</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 4 сек.</t>
+    <t>9 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>355–356</t>
@@ -3116,7 +3116,7 @@
     <t>Пашуня</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 13 сек.</t>
+    <t>14 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>задумчивый</t>
@@ -3185,13 +3185,13 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 14 сек.</t>
+    <t>16 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>FatboyPrince</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 51 сек.</t>
+    <t>9 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>374–377</t>
@@ -3200,13 +3200,13 @@
     <t>Kl9ksa</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 5 сек.</t>
+    <t>11 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 3 сек.</t>
+    <t>9 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>Showmaster</t>
@@ -3284,7 +3284,7 @@
     <t>Торописька</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 15 сек.</t>
+    <t>8 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>warway</t>
@@ -3314,7 +3314,7 @@
     <t>Еремей</t>
   </si>
   <si>
-    <t>18 ч. 37 мин. 2 сек.</t>
+    <t>18 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>390</t>
@@ -3323,7 +3323,7 @@
     <t>Tatsi_3006</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 0 сек.</t>
+    <t>15 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>391–392</t>
@@ -3368,13 +3368,13 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>15 ч. 31 мин. 2 сек.</t>
+    <t>15 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>xland</t>
   </si>
   <si>
-    <t>20 ч. 0 мин. 14 сек.</t>
+    <t>20 ч. 00 мин. 14 сек.</t>
   </si>
   <si>
     <t>feinstein</t>
@@ -3410,7 +3410,7 @@
     <t>vasilisa_v</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 0 сек.</t>
+    <t>12 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>403</t>
@@ -3419,7 +3419,7 @@
     <t>Massik</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 53 сек.</t>
+    <t>9 ч. 04 мин. 53 сек.</t>
   </si>
   <si>
     <t>404–405</t>
@@ -3434,7 +3434,7 @@
     <t>piu_piu</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 26 сек.</t>
+    <t>12 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>406</t>
@@ -3497,7 +3497,7 @@
     <t>Книголюб</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 4 сек.</t>
+    <t>13 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>414</t>
@@ -3530,13 +3530,13 @@
     <t>alanko</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 37 сек.</t>
+    <t>26 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>sergius-ark</t>
   </si>
   <si>
-    <t>12 ч. 30 мин. 9 сек.</t>
+    <t>12 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>Чиндрик</t>
@@ -3566,7 +3566,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 18 сек.</t>
+    <t>9 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>423</t>
@@ -3590,7 +3590,7 @@
     <t>Большой_Дрю</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 1 сек.</t>
+    <t>11 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>426–428</t>
@@ -3647,7 +3647,7 @@
     <t>LexusAmd</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 59 сек.</t>
+    <t>12 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>оно</t>
@@ -3674,7 +3674,7 @@
     <t>Georgio</t>
   </si>
   <si>
-    <t>16 ч. 7 мин. 29 сек.</t>
+    <t>16 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>Кадий</t>
@@ -3704,7 +3704,7 @@
     <t>БомблюНаАйпаде</t>
   </si>
   <si>
-    <t>11 ч. 41 мин. 1 сек.</t>
+    <t>11 ч. 41 мин. 01 сек.</t>
   </si>
   <si>
     <t>441</t>
@@ -3728,7 +3728,7 @@
     <t>Danwer</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 38 сек.</t>
+    <t>14 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>Frostegg</t>
@@ -3743,7 +3743,7 @@
     <t>grebenkov</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 57 сек.</t>
+    <t>17 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>artt</t>
@@ -3830,7 +3830,7 @@
     <t>Якоб</t>
   </si>
   <si>
-    <t>23 ч. 19 мин. 7 сек.</t>
+    <t>23 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>458</t>
@@ -3839,7 +3839,7 @@
     <t>Юрикор_Мишка</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 2 сек.</t>
+    <t>6 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>459–460</t>
@@ -3854,7 +3854,7 @@
     <t>7dd7</t>
   </si>
   <si>
-    <t>11 ч. 47 мин. 5 сек.</t>
+    <t>11 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>461</t>
@@ -3863,7 +3863,7 @@
     <t>GGHFGL</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 1 сек.</t>
+    <t>7 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>462–463</t>
@@ -3887,13 +3887,13 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 29 сек.</t>
+    <t>9 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>lislkap</t>
   </si>
   <si>
-    <t>9 ч. 49 мин. 2 сек.</t>
+    <t>9 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>466–468</t>
@@ -3902,7 +3902,7 @@
     <t>Vasia_Chekalin</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 51 сек.</t>
+    <t>12 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>ХвастНа</t>
@@ -3929,7 +3929,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 47 сек.</t>
+    <t>9 ч. 07 мин. 47 сек.</t>
   </si>
   <si>
     <t>471–472</t>
@@ -3959,19 +3959,19 @@
     <t>Lurlei</t>
   </si>
   <si>
-    <t>11 ч. 54 мин. 3 сек.</t>
+    <t>11 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>_сахарок_</t>
   </si>
   <si>
-    <t>13 ч. 6 мин. 19 сек.</t>
+    <t>13 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>6 ч. 51 мин. 4 сек.</t>
+    <t>6 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>Fenex</t>
@@ -4037,7 +4037,7 @@
     <t>Freighter</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 2 сек.</t>
+    <t>10 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4091,7 +4091,7 @@
     <t>androed</t>
   </si>
   <si>
-    <t>12 ч. 22 мин. 0 сек.</t>
+    <t>12 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>dotdet</t>
@@ -4106,7 +4106,7 @@
     <t>gree</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 42 сек.</t>
+    <t>9 ч. 05 мин. 42 сек.</t>
   </si>
   <si>
     <t>Vladimr</t>
@@ -4157,7 +4157,7 @@
     <t>Sasha_smile</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 47 сек.</t>
+    <t>17 ч. 04 мин. 47 сек.</t>
   </si>
   <si>
     <t>500–501</t>
@@ -4217,13 +4217,13 @@
     <t>plytishka</t>
   </si>
   <si>
-    <t>6 ч. 42 мин. 5 сек.</t>
+    <t>6 ч. 42 мин. 05 сек.</t>
   </si>
   <si>
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 3 сек.</t>
+    <t>6 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>Sebastien</t>
@@ -4259,7 +4259,7 @@
     <t>Трамтарарам</t>
   </si>
   <si>
-    <t>11 ч. 36 мин. 0 сек.</t>
+    <t>11 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>nosferatum</t>
@@ -4298,7 +4298,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 21 сек.</t>
+    <t>7 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>1Антоха1</t>
@@ -4331,7 +4331,7 @@
     <t>Дронио</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 56 сек.</t>
+    <t>10 ч. 04 мин. 56 сек.</t>
   </si>
   <si>
     <t>525–528</t>
@@ -4379,7 +4379,7 @@
     <t>gaintsev</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 20 сек.</t>
+    <t>7 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>zvezdohka</t>
@@ -4415,7 +4415,7 @@
     <t>Watcher13</t>
   </si>
   <si>
-    <t>7 ч. 27 мин. 2 сек.</t>
+    <t>7 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>Bolot</t>
@@ -4430,7 +4430,7 @@
     <t>Espera</t>
   </si>
   <si>
-    <t>9 ч. 38 мин. 4 сек.</t>
+    <t>9 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>ALEX34RUS</t>
@@ -4478,13 +4478,13 @@
     <t>jassy100</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 1 сек.</t>
+    <t>9 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>Manhunt714</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 50 сек.</t>
+    <t>7 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>meze</t>
@@ -4517,7 +4517,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 18 сек.</t>
+    <t>10 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>552–554</t>
@@ -4538,7 +4538,7 @@
     <t>SashancheK</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 1 сек.</t>
+    <t>11 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>555–557</t>
@@ -4574,7 +4574,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>6 ч. 25 мин. 9 сек.</t>
+    <t>6 ч. 25 мин. 09 сек.</t>
   </si>
   <si>
     <t>LeXO</t>
@@ -4616,7 +4616,7 @@
     <t>pelmen</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 3 сек.</t>
+    <t>8 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>Uraniadz</t>
@@ -4667,7 +4667,7 @@
     <t>volchok962</t>
   </si>
   <si>
-    <t>15 ч. 0 мин. 33 сек.</t>
+    <t>15 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>vanster</t>
@@ -4694,13 +4694,13 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>16 ч. 28 мин. 4 сек.</t>
+    <t>16 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>5 ч. 17 мин. 1 сек.</t>
+    <t>5 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>Днище_грЕбаное</t>
@@ -4736,7 +4736,7 @@
     <t>0Lika</t>
   </si>
   <si>
-    <t>8 ч. 28 мин. 2 сек.</t>
+    <t>8 ч. 28 мин. 02 сек.</t>
   </si>
   <si>
     <t>Alsim</t>
@@ -4748,7 +4748,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 2 сек.</t>
+    <t>5 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>585–589</t>
@@ -4757,13 +4757,13 @@
     <t>realemerald</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 7 сек.</t>
+    <t>4 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>kjonix1337</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 2 сек.</t>
+    <t>9 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>OmNom</t>
@@ -4796,7 +4796,7 @@
     <t>Valjdemar</t>
   </si>
   <si>
-    <t>10 ч. 0 мин. 56 сек.</t>
+    <t>10 ч. 00 мин. 56 сек.</t>
   </si>
   <si>
     <t>ДедМороз</t>
@@ -4811,7 +4811,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 34 сек.</t>
+    <t>8 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>594–596</t>
@@ -4832,7 +4832,7 @@
     <t>Waleria</t>
   </si>
   <si>
-    <t>6 ч. 27 мин. 0 сек.</t>
+    <t>6 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>597</t>
@@ -4841,7 +4841,7 @@
     <t>Tolstij</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 57 сек.</t>
+    <t>8 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -4871,7 +4871,7 @@
     <t>mizinovo1</t>
   </si>
   <si>
-    <t>11 ч. 22 мин. 5 сек.</t>
+    <t>11 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>602–604</t>
@@ -4880,13 +4880,13 @@
     <t>dim2015</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 1 сек.</t>
+    <t>9 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>mdanoff</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 8 сек.</t>
+    <t>5 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>Shineout</t>
@@ -4931,7 +4931,7 @@
     <t>ZeaLotFeed</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 36 сек.</t>
+    <t>8 ч. 05 мин. 36 сек.</t>
   </si>
   <si>
     <t>Lucky_Cat</t>
@@ -5009,13 +5009,13 @@
     <t>alensw4</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 26 сек.</t>
+    <t>16 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>Ehoe</t>
   </si>
   <si>
-    <t>10 ч. 12 мин. 8 сек.</t>
+    <t>10 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>623–625</t>
@@ -5024,7 +5024,7 @@
     <t>silut1</t>
   </si>
   <si>
-    <t>13 ч. 26 мин. 5 сек.</t>
+    <t>13 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>atush</t>
@@ -5036,7 +5036,7 @@
     <t>passion11</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 0 сек.</t>
+    <t>10 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>626</t>
@@ -5072,7 +5072,7 @@
     <t>undoundo</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 6 сек.</t>
+    <t>8 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>630–631</t>
@@ -5081,7 +5081,7 @@
     <t>ВкусВетра</t>
   </si>
   <si>
-    <t>16 ч. 40 мин. 6 сек.</t>
+    <t>16 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>Сидхартха</t>
@@ -5135,13 +5135,13 @@
     <t>900</t>
   </si>
   <si>
-    <t>10 ч. 26 мин. 7 сек.</t>
+    <t>10 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>karabaska</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 46 сек.</t>
+    <t>8 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>640–642</t>
@@ -5150,7 +5150,7 @@
     <t>Fr1day</t>
   </si>
   <si>
-    <t>9 ч. 53 мин. 1 сек.</t>
+    <t>9 ч. 53 мин. 01 сек.</t>
   </si>
   <si>
     <t>vlentina</t>
@@ -5189,7 +5189,7 @@
     <t>Lensha2010</t>
   </si>
   <si>
-    <t>6 ч. 38 мин. 6 сек.</t>
+    <t>6 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>647</t>
@@ -5213,7 +5213,7 @@
     <t>Lupen</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 31 сек.</t>
+    <t>9 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>650–652</t>
@@ -5234,7 +5234,7 @@
     <t>Langolierrr</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 1 сек.</t>
+    <t>4 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>653–655</t>
@@ -5255,7 +5255,7 @@
     <t>VodViktor</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>656–659</t>
@@ -5264,7 +5264,7 @@
     <t>Callahan</t>
   </si>
   <si>
-    <t>8 ч. 17 мин. 7 сек.</t>
+    <t>8 ч. 17 мин. 07 сек.</t>
   </si>
   <si>
     <t>Аленка</t>
@@ -5354,13 +5354,13 @@
     <t>Antoniwww</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 15 сек.</t>
+    <t>8 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 0 сек.</t>
+    <t>4 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>672–676</t>
@@ -5393,7 +5393,7 @@
     <t>Ronnie_</t>
   </si>
   <si>
-    <t>6 ч. 55 мин. 4 сек.</t>
+    <t>6 ч. 55 мин. 04 сек.</t>
   </si>
   <si>
     <t>677</t>
@@ -5402,7 +5402,7 @@
     <t>_BP_</t>
   </si>
   <si>
-    <t>7 ч. 25 мин. 2 сек.</t>
+    <t>7 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>678–682</t>
@@ -5411,7 +5411,7 @@
     <t>a350</t>
   </si>
   <si>
-    <t>8 ч. 37 мин. 9 сек.</t>
+    <t>8 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>Lens77</t>
@@ -5423,19 +5423,19 @@
     <t>elminia</t>
   </si>
   <si>
-    <t>11 ч. 16 мин. 4 сек.</t>
+    <t>11 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>Andre_Macareno</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 57 сек.</t>
+    <t>4 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>Brunetka</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 41 сек.</t>
+    <t>6 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>683–686</t>
@@ -5444,13 +5444,13 @@
     <t>Светорада</t>
   </si>
   <si>
-    <t>16 ч. 3 мин. 9 сек.</t>
+    <t>16 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>Razvedos77</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 26 сек.</t>
+    <t>10 ч. 01 мин. 26 сек.</t>
   </si>
   <si>
     <t>Мамонтенок</t>
@@ -5462,7 +5462,7 @@
     <t>Zippin</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 24 сек.</t>
+    <t>5 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>687–690</t>
@@ -5477,19 +5477,19 @@
     <t>gabola</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 55 сек.</t>
+    <t>10 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 39 сек.</t>
+    <t>5 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>АнтонМискевич</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 1 сек.</t>
+    <t>5 ч. 57 мин. 01 сек.</t>
   </si>
   <si>
     <t>691–695</t>
@@ -5504,7 +5504,7 @@
     <t>бо1</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 9 сек.</t>
+    <t>5 ч. 27 мин. 09 сек.</t>
   </si>
   <si>
     <t>irsan76</t>
@@ -5537,13 +5537,13 @@
     <t>Captain_snail</t>
   </si>
   <si>
-    <t>11 ч. 33 мин. 0 сек.</t>
+    <t>11 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>lafit</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 1 сек.</t>
+    <t>5 ч. 59 мин. 01 сек.</t>
   </si>
   <si>
     <t>699–702</t>
@@ -5594,7 +5594,7 @@
     <t>Ковровчаночка</t>
   </si>
   <si>
-    <t>12 ч. 2 мин. 24 сек.</t>
+    <t>12 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>706–714</t>
@@ -5603,19 +5603,19 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>5 ч. 18 мин. 2 сек.</t>
+    <t>5 ч. 18 мин. 02 сек.</t>
   </si>
   <si>
     <t>Vel73</t>
   </si>
   <si>
-    <t>8 ч. 45 мин. 5 сек.</t>
+    <t>8 ч. 45 мин. 05 сек.</t>
   </si>
   <si>
     <t>Sssu</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 18 сек.</t>
+    <t>7 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>gandy</t>
@@ -5732,13 +5732,13 @@
     <t>arinori</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 41 сек.</t>
+    <t>11 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>Deep87</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 2 сек.</t>
+    <t>7 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>728–733</t>
@@ -5765,7 +5765,7 @@
     <t>Vitosspom</t>
   </si>
   <si>
-    <t>7 ч. 7 мин. 16 сек.</t>
+    <t>7 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>Katinchen</t>
@@ -5786,7 +5786,7 @@
     <t>keyboard_jerker</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 10 сек.</t>
+    <t>13 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>ergozorax</t>
@@ -5804,13 +5804,13 @@
     <t>Kronig</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 11 сек.</t>
+    <t>7 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>DeDlol</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 55 сек.</t>
+    <t>5 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>Catsvill</t>
@@ -5864,7 +5864,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 36 сек.</t>
+    <t>7 ч. 02 мин. 36 сек.</t>
   </si>
   <si>
     <t>Cibo</t>
@@ -5885,7 +5885,7 @@
     <t>Skiper</t>
   </si>
   <si>
-    <t>6 ч. 21 мин. 0 сек.</t>
+    <t>6 ч. 21 мин. 00 сек.</t>
   </si>
   <si>
     <t>Scarpion</t>
@@ -5912,7 +5912,7 @@
     <t>YuranTM</t>
   </si>
   <si>
-    <t>6 ч. 30 мин. 6 сек.</t>
+    <t>6 ч. 30 мин. 06 сек.</t>
   </si>
   <si>
     <t>Luxmaster</t>
@@ -5972,7 +5972,7 @@
     <t>guojia</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 18 сек.</t>
+    <t>5 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>Andreyst</t>
@@ -5984,7 +5984,7 @@
     <t>Da_f</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 6 сек.</t>
+    <t>7 ч. 00 мин. 06 сек.</t>
   </si>
   <si>
     <t>magellan1</t>
@@ -6011,13 +6011,13 @@
     <t>PaP1k</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 15 сек.</t>
+    <t>8 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>Joonior</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 8 сек.</t>
+    <t>6 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>TRIANON</t>
@@ -6044,7 +6044,7 @@
     <t>vladlun1977</t>
   </si>
   <si>
-    <t>10 ч. 36 мин. 3 сек.</t>
+    <t>10 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>E_l_e_n_a</t>
@@ -6056,7 +6056,7 @@
     <t>maxon4ik</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 12 сек.</t>
+    <t>5 ч. 07 мин. 12 сек.</t>
   </si>
   <si>
     <t>мимими</t>
@@ -6077,7 +6077,7 @@
     <t>treexH</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 7 сек.</t>
+    <t>4 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>banzaichik</t>
@@ -6125,13 +6125,13 @@
     <t>Meryflight</t>
   </si>
   <si>
-    <t>6 ч. 37 мин. 2 сек.</t>
+    <t>6 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>SteeLFalcoN</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 45 сек.</t>
+    <t>4 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>GlebbI4</t>
@@ -6158,7 +6158,7 @@
     <t>iforrest</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 9 сек.</t>
+    <t>3 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>88svet88</t>
@@ -6194,7 +6194,7 @@
     <t>statyev</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 26 сек.</t>
+    <t>6 ч. 09 мин. 26 сек.</t>
   </si>
   <si>
     <t>797–800</t>
@@ -6209,7 +6209,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>4 ч. 20 мин. 3 сек.</t>
+    <t>4 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>aaaa1961</t>
@@ -6230,7 +6230,7 @@
     <t>vitalion_</t>
   </si>
   <si>
-    <t>14 ч. 2 мин. 52 сек.</t>
+    <t>14 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>danilaOvich</t>
@@ -6242,7 +6242,7 @@
     <t>Geistero</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 40 сек.</t>
+    <t>4 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>Lamia89</t>
@@ -6263,13 +6263,13 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 6 сек.</t>
+    <t>6 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>wertuss</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>Berillio</t>
@@ -6284,7 +6284,7 @@
     <t>Chadfleanthony</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 51 сек.</t>
+    <t>4 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>KeyCRACKer</t>
@@ -6317,13 +6317,13 @@
     <t>calkul9tor</t>
   </si>
   <si>
-    <t>6 ч. 31 мин. 9 сек.</t>
+    <t>6 ч. 31 мин. 09 сек.</t>
   </si>
   <si>
     <t>Vergessen</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 38 сек.</t>
+    <t>5 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>816–822</t>
@@ -6359,7 +6359,7 @@
     <t>Gesichtslos</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 42 сек.</t>
+    <t>6 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>Eridan</t>
@@ -6374,7 +6374,7 @@
     <t>liuluil</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 59 сек.</t>
+    <t>4 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>peaky</t>
@@ -6419,7 +6419,7 @@
     <t>owiden</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 4 сек.</t>
+    <t>6 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>Dmitry123</t>
@@ -6431,7 +6431,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 24 сек.</t>
+    <t>4 ч. 02 мин. 24 сек.</t>
   </si>
   <si>
     <t>Avensis</t>
@@ -6443,7 +6443,7 @@
     <t>Telefunkenist</t>
   </si>
   <si>
-    <t>4 ч. 26 мин. 1 сек.</t>
+    <t>4 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>rc-slayer</t>
@@ -6494,7 +6494,7 @@
     <t>Falster</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 26 сек.</t>
+    <t>4 ч. 07 мин. 26 сек.</t>
   </si>
   <si>
     <t>Mura_</t>
@@ -6515,7 +6515,7 @@
     <t>JIug</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 23 сек.</t>
+    <t>6 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>inine</t>
@@ -6533,7 +6533,7 @@
     <t>anahata</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 57 сек.</t>
+    <t>4 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>849–853</t>
@@ -6554,7 +6554,7 @@
     <t>Boolbek</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 20 сек.</t>
+    <t>7 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>тиква-шлюшка</t>
@@ -6581,13 +6581,13 @@
     <t>Irinaya</t>
   </si>
   <si>
-    <t>10 ч. 47 мин. 5 сек.</t>
+    <t>10 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>EvilMachine</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 2 сек.</t>
+    <t>4 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>Aletca</t>
@@ -6599,7 +6599,7 @@
     <t>grevgen</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 54 сек.</t>
+    <t>5 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>859–866</t>
@@ -6620,19 +6620,19 @@
     <t>Zephir</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 3 сек.</t>
+    <t>5 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>Атата</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 3 сек.</t>
+    <t>4 ч. 56 мин. 03 сек.</t>
   </si>
   <si>
     <t>NodeJS</t>
   </si>
   <si>
-    <t>6 ч. 42 мин. 1 сек.</t>
+    <t>6 ч. 42 мин. 01 сек.</t>
   </si>
   <si>
     <t>Evgedoc</t>
@@ -6698,7 +6698,7 @@
     <t>Антоний_</t>
   </si>
   <si>
-    <t>6 ч. 32 мин. 2 сек.</t>
+    <t>6 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>874–878</t>
@@ -6713,7 +6713,7 @@
     <t>Azartezem</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 8 сек.</t>
+    <t>5 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>Кунанов</t>
@@ -6731,7 +6731,7 @@
     <t>Ares0000</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 5 сек.</t>
+    <t>5 ч. 21 мин. 05 сек.</t>
   </si>
   <si>
     <t>879–880</t>
@@ -6761,7 +6761,7 @@
     <t>RealWizZard</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 0 сек.</t>
+    <t>3 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>Kanzi</t>
@@ -6776,13 +6776,13 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 8 сек.</t>
+    <t>4 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>andreysharipov</t>
   </si>
   <si>
-    <t>9 ч. 35 мин. 4 сек.</t>
+    <t>9 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>ГОЧА</t>
@@ -6803,13 +6803,13 @@
     <t>Хамякадзе</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 36 сек.</t>
+    <t>6 ч. 07 мин. 36 сек.</t>
   </si>
   <si>
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>lesniken</t>
@@ -6836,13 +6836,13 @@
     <t>Vlados_</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 2 сек.</t>
+    <t>4 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>Floopyy</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 5 сек.</t>
+    <t>4 ч. 46 мин. 05 сек.</t>
   </si>
   <si>
     <t>895–898</t>
@@ -6851,19 +6851,19 @@
     <t>Гений_Печати</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 2 сек.</t>
+    <t>6 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Попугай_Кеша</t>
   </si>
   <si>
-    <t>4 ч. 55 мин. 5 сек.</t>
+    <t>4 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>AlexVN</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 33 сек.</t>
+    <t>7 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>zenz</t>
@@ -6884,7 +6884,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 1 сек.</t>
+    <t>4 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>Халосая</t>
@@ -6908,7 +6908,7 @@
     <t>Galoperidol</t>
   </si>
   <si>
-    <t>2 ч. 28 мин. 4 сек.</t>
+    <t>2 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>905–912</t>
@@ -6917,7 +6917,7 @@
     <t>yarik7_6</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 39 сек.</t>
+    <t>5 ч. 07 мин. 39 сек.</t>
   </si>
   <si>
     <t>-Well-</t>
@@ -6959,7 +6959,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 7 сек.</t>
+    <t>3 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>913–918</t>
@@ -6998,7 +6998,7 @@
     <t>DMIB</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 8 сек.</t>
+    <t>4 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>919–922</t>
@@ -7013,7 +7013,7 @@
     <t>Gudron</t>
   </si>
   <si>
-    <t>3 ч. 30 мин. 9 сек.</t>
+    <t>3 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>leonis2010</t>
@@ -7067,7 +7067,7 @@
     <t>zdes</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 0 сек.</t>
+    <t>6 ч. 10 мин. 00 сек.</t>
   </si>
   <si>
     <t>Злой_Физик</t>
@@ -7079,13 +7079,13 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 34 сек.</t>
+    <t>5 ч. 02 мин. 34 сек.</t>
   </si>
   <si>
     <t>m3rkus</t>
   </si>
   <si>
-    <t>7 ч. 16 мин. 8 сек.</t>
+    <t>7 ч. 16 мин. 08 сек.</t>
   </si>
   <si>
     <t>KAYFARYK</t>
@@ -7106,7 +7106,7 @@
     <t>katetime2000</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 30 сек.</t>
+    <t>11 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>buerak</t>
@@ -7118,7 +7118,7 @@
     <t>моном</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 50 сек.</t>
+    <t>4 ч. 09 мин. 50 сек.</t>
   </si>
   <si>
     <t>клавоинка</t>
@@ -7148,7 +7148,7 @@
     <t>Руна</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 9 сек.</t>
+    <t>5 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>SlyBeetle</t>
@@ -7190,7 +7190,7 @@
     <t>alx_ol</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 10 сек.</t>
+    <t>5 ч. 05 мин. 10 сек.</t>
   </si>
   <si>
     <t>ВалераУлитка</t>
@@ -7202,7 +7202,7 @@
     <t>XuMuK_</t>
   </si>
   <si>
-    <t>6 ч. 18 мин. 5 сек.</t>
+    <t>6 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>Obmoroz</t>
@@ -7214,7 +7214,7 @@
     <t>Jerichoni</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 17 сек.</t>
+    <t>4 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>gribell</t>
@@ -7226,13 +7226,13 @@
     <t>Serko72</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 55 сек.</t>
+    <t>7 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>Mary27</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 57 сек.</t>
+    <t>7 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>Бэтмен</t>
@@ -7244,7 +7244,7 @@
     <t>0beron</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 13 сек.</t>
+    <t>4 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>957–961</t>
@@ -7298,7 +7298,7 @@
     <t>Петруша</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 7 сек.</t>
+    <t>6 ч. 12 мин. 07 сек.</t>
   </si>
   <si>
     <t>alarr89</t>
@@ -7310,7 +7310,7 @@
     <t>Salander</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 30 сек.</t>
+    <t>5 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>Enforcer2030</t>
@@ -7322,7 +7322,7 @@
     <t>Тазы-валят</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 5 сек.</t>
+    <t>3 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>Буду_первым</t>
@@ -7340,7 +7340,7 @@
     <t>Flinty518</t>
   </si>
   <si>
-    <t>3 ч. 27 мин. 1 сек.</t>
+    <t>3 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>лергето</t>
@@ -7355,7 +7355,7 @@
     <t>Katariada</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 19 сек.</t>
+    <t>8 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>yegorchik</t>
@@ -7403,13 +7403,13 @@
     <t>SanyaLive</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 2 сек.</t>
+    <t>4 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Carcharias</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 57 сек.</t>
+    <t>3 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>antoxamad</t>
@@ -7439,7 +7439,7 @@
     <t>hedint</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 9 сек.</t>
+    <t>3 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>989–991</t>
@@ -7448,13 +7448,13 @@
     <t>kimisfan</t>
   </si>
   <si>
-    <t>4 ч. 57 мин. 9 сек.</t>
+    <t>4 ч. 57 мин. 09 сек.</t>
   </si>
   <si>
     <t>training</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 4 сек.</t>
+    <t>3 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>S0meOne</t>
@@ -7505,19 +7505,19 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>5 ч. 36 мин. 5 сек.</t>
+    <t>5 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 15 сек.</t>
+    <t>4 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>кенгуру_саня</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 26 сек.</t>
+    <t>4 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>aneliya1982</t>
@@ -7535,7 +7535,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 6 сек.</t>
+    <t>3 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>1004–1013</t>
@@ -7646,7 +7646,7 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>3 ч. 21 мин. 6 сек.</t>
+    <t>3 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>1022–1031</t>
@@ -7709,7 +7709,7 @@
     <t>4bia</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 8 сек.</t>
+    <t>2 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>1032–1043</t>
@@ -7724,7 +7724,7 @@
     <t>AtLanT_123</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 2 сек.</t>
+    <t>4 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>dogs_life</t>
@@ -7763,7 +7763,7 @@
     <t>Ларис</t>
   </si>
   <si>
-    <t>5 ч. 52 мин. 7 сек.</t>
+    <t>5 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>слоупочище</t>
@@ -7775,7 +7775,7 @@
     <t>monday</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 3 сек.</t>
+    <t>12 ч. 03 мин. 03 сек.</t>
   </si>
   <si>
     <t>Alixan-Dag</t>
